--- a/Producto/Movil/Casos de prueba/Ejecuciones/1.xlsx
+++ b/Producto/Movil/Casos de prueba/Ejecuciones/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -306,6 +306,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -353,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,7 +603,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +682,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +761,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="7">
-        <v>41898</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
